--- a/data/trans_orig/P04A-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P04A-Clase-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5478</v>
+        <v>5482</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002289087747593823</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01156289570661025</v>
+        <v>0.01157015852202343</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9085</v>
+        <v>8327</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.007505513128511543</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02962494088838373</v>
+        <v>0.02715211292349236</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -786,19 +786,19 @@
         <v>3386</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1073</v>
+        <v>1088</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9210</v>
+        <v>10196</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0043388812732766</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001374255877321301</v>
+        <v>0.001394297633774724</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01180119743312779</v>
+        <v>0.01306375677410842</v>
       </c>
     </row>
     <row r="5">
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4489</v>
+        <v>4877</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.001931498215291634</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.00947563186632369</v>
+        <v>0.01029362549266167</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -852,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>5047</v>
+        <v>4590</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.001172516298085316</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.006466694984377004</v>
+        <v>0.0058808538384084</v>
       </c>
     </row>
     <row r="6">
@@ -925,19 +925,19 @@
         <v>59496</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>43603</v>
+        <v>45492</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>77534</v>
+        <v>76896</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1255788963336651</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09203302860933781</v>
+        <v>0.0960196259243738</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1636508790436551</v>
+        <v>0.1623051690810488</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>35</v>
@@ -946,19 +946,19 @@
         <v>38847</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>28025</v>
+        <v>28632</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>52034</v>
+        <v>53346</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1266704307996642</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09138288834928725</v>
+        <v>0.09336085737585219</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1696678807384621</v>
+        <v>0.1739478605082275</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>84</v>
@@ -967,19 +967,19 @@
         <v>98344</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>80066</v>
+        <v>79837</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>119820</v>
+        <v>119416</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1260078146288734</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1025892165264728</v>
+        <v>0.1022954274378286</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1535256634586013</v>
+        <v>0.1530072568266417</v>
       </c>
     </row>
     <row r="8">
@@ -996,19 +996,19 @@
         <v>412280</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>393718</v>
+        <v>394930</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>428162</v>
+        <v>426958</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8702005177034495</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.831021378079986</v>
+        <v>0.833578951108185</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9037225972888578</v>
+        <v>0.9011816005938755</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>261</v>
@@ -1017,19 +1017,19 @@
         <v>265531</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>251270</v>
+        <v>251706</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>276718</v>
+        <v>276652</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8658240560718242</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.819321584096783</v>
+        <v>0.8207442404902703</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9023007999662405</v>
+        <v>0.902085385821637</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>665</v>
@@ -1038,19 +1038,19 @@
         <v>677812</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>655977</v>
+        <v>655562</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>697198</v>
+        <v>696778</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8684807877997647</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8405033288933003</v>
+        <v>0.8399724451912384</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8933204466561617</v>
+        <v>0.892781785020534</v>
       </c>
     </row>
     <row r="9">
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6574</v>
+        <v>6267</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.005472102811289589</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01791522910680151</v>
+        <v>0.01707912347763072</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>7065</v>
+        <v>6904</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.002717791068546203</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.009563147559396055</v>
+        <v>0.009345478537788889</v>
       </c>
     </row>
     <row r="12">
@@ -1255,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8504</v>
+        <v>10156</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.004692371322110614</v>
@@ -1264,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02317615243395364</v>
+        <v>0.02767808000152357</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1</v>
@@ -1276,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>4755</v>
+        <v>4639</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.002506674434827356</v>
@@ -1285,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.01278718377182447</v>
+        <v>0.01247550260229877</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>8875</v>
+        <v>8796</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.003592229235908982</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.01201308809189989</v>
+        <v>0.01190624628261817</v>
       </c>
     </row>
     <row r="13">
@@ -1323,19 +1323,19 @@
         <v>38432</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>27967</v>
+        <v>28853</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>50413</v>
+        <v>52805</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1047380380709673</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07621672648702552</v>
+        <v>0.07863400939065383</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1373910090999185</v>
+        <v>0.1439086800298905</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>52</v>
@@ -1344,19 +1344,19 @@
         <v>53308</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>40378</v>
+        <v>40358</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>67292</v>
+        <v>68757</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1433531807563422</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1085826368853932</v>
+        <v>0.1085293568543264</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1809572804398385</v>
+        <v>0.184897010753028</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>89</v>
@@ -1365,19 +1365,19 @@
         <v>91740</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>75392</v>
+        <v>74937</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>110684</v>
+        <v>112226</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.124174467650947</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1020470850567634</v>
+        <v>0.101430593171814</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1498163773779019</v>
+        <v>0.1519026447998885</v>
       </c>
     </row>
     <row r="14">
@@ -1394,19 +1394,19 @@
         <v>324772</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>311641</v>
+        <v>309527</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>335547</v>
+        <v>335232</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8850974877956325</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8493112066414102</v>
+        <v>0.8435504626606559</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9144611012427654</v>
+        <v>0.9136023058762652</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>310</v>
@@ -1415,19 +1415,19 @@
         <v>317625</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>303487</v>
+        <v>301945</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>330532</v>
+        <v>331275</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8541401448088305</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8161217470560616</v>
+        <v>0.8119740433334124</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8888483593514943</v>
+        <v>0.8908481510971856</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>620</v>
@@ -1436,19 +1436,19 @@
         <v>642397</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>623403</v>
+        <v>620344</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>659218</v>
+        <v>659916</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8695155120445978</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8438061055243407</v>
+        <v>0.8396651683947938</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8922826274491501</v>
+        <v>0.893227815495239</v>
       </c>
     </row>
     <row r="15">
@@ -1556,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5989</v>
+        <v>6013</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01179732227389691</v>
@@ -1565,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03569221355208177</v>
+        <v>0.03584066460504916</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2</v>
@@ -1577,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>7124</v>
+        <v>6952</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.002787183974579604</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01003135448808402</v>
+        <v>0.009789159571727215</v>
       </c>
     </row>
     <row r="17">
@@ -1603,19 +1603,19 @@
         <v>2821</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>874</v>
+        <v>884</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7573</v>
+        <v>8261</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.005201411793145037</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.001612124629042128</v>
+        <v>0.001629645982804021</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.013963052072784</v>
+        <v>0.015231094151393</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4818</v>
+        <v>4863</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.005138266969942394</v>
@@ -1636,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02871473389006365</v>
+        <v>0.02898127174271035</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4</v>
@@ -1645,19 +1645,19 @@
         <v>3683</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>890</v>
+        <v>904</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>9662</v>
+        <v>9587</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.00518649347225645</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.001253769181528733</v>
+        <v>0.001272995634313282</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01360555257560853</v>
+        <v>0.01350014076947533</v>
       </c>
     </row>
     <row r="18">
@@ -1674,19 +1674,19 @@
         <v>3817</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1012</v>
+        <v>940</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9637</v>
+        <v>9421</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.007037793934775534</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.001865473188326609</v>
+        <v>0.001733873369326124</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.01776757065232785</v>
+        <v>0.01736966356083728</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1</v>
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>4723</v>
+        <v>6000</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.006032485079884846</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.0281513640612155</v>
+        <v>0.03576246874439954</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>5</v>
@@ -1716,19 +1716,19 @@
         <v>4829</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1866</v>
+        <v>1845</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>10722</v>
+        <v>10477</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.00680028404356454</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.002627104888100162</v>
+        <v>0.002597454059418678</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.0150973860069263</v>
+        <v>0.01475310561161845</v>
       </c>
     </row>
     <row r="19">
@@ -1745,19 +1745,19 @@
         <v>62902</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>47556</v>
+        <v>47322</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>80659</v>
+        <v>80768</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1159713451650038</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08767849151744617</v>
+        <v>0.08724704434645243</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1487112356270769</v>
+        <v>0.1489119337266521</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>10</v>
@@ -1766,19 +1766,19 @@
         <v>12255</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5913</v>
+        <v>6260</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>21857</v>
+        <v>20533</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0730425801857157</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03524498046312364</v>
+        <v>0.03730909822887913</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1302708822288058</v>
+        <v>0.1223765481590942</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>64</v>
@@ -1787,19 +1787,19 @@
         <v>75157</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>59420</v>
+        <v>59220</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>96744</v>
+        <v>95982</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1058291821367455</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08366938899061015</v>
+        <v>0.08338849717158643</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1362261405143961</v>
+        <v>0.1351535885693495</v>
       </c>
     </row>
     <row r="20">
@@ -1816,19 +1816,19 @@
         <v>472849</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>453307</v>
+        <v>454839</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>487837</v>
+        <v>488520</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8717894491070756</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8357601351289988</v>
+        <v>0.838583698900371</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8994236413537293</v>
+        <v>0.9006813305509263</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>150</v>
@@ -1837,19 +1837,19 @@
         <v>151673</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>140729</v>
+        <v>141763</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>158420</v>
+        <v>158327</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9039893454905601</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.838758501958126</v>
+        <v>0.8449231432584741</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9441985663478962</v>
+        <v>0.9436482956256743</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>621</v>
@@ -1858,19 +1858,19 @@
         <v>624522</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>603700</v>
+        <v>604076</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>641895</v>
+        <v>641788</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8793968563728539</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8500772784732278</v>
+        <v>0.8506062546728027</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9038599520814933</v>
+        <v>0.9037086471370666</v>
       </c>
     </row>
     <row r="21">
@@ -1962,19 +1962,19 @@
         <v>7201</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3019</v>
+        <v>3093</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>14103</v>
+        <v>14453</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.005815003119607378</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.002437841062439197</v>
+        <v>0.002497649834291844</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01138887978723605</v>
+        <v>0.01167149633525854</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>10463</v>
+        <v>9234</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.003868601992624233</v>
@@ -1995,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01464850682996968</v>
+        <v>0.01292769719435979</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>9</v>
@@ -2004,19 +2004,19 @@
         <v>9964</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4818</v>
+        <v>4145</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>19301</v>
+        <v>17557</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.005102992608876777</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.00246754389992612</v>
+        <v>0.002122772119499088</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.009884631367068016</v>
+        <v>0.008991342595230916</v>
       </c>
     </row>
     <row r="23">
@@ -2033,19 +2033,19 @@
         <v>12545</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5958</v>
+        <v>6244</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>21852</v>
+        <v>22425</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01013081113813914</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.004811676775024552</v>
+        <v>0.005041978824688582</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01764636632034191</v>
+        <v>0.01810914113577632</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4</v>
@@ -2057,16 +2057,16 @@
         <v>1071</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>11563</v>
+        <v>12450</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.006704633148238043</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.001500040531497778</v>
+        <v>0.001499551143069023</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01618807675834203</v>
+        <v>0.01743026710117393</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>15</v>
@@ -2075,19 +2075,19 @@
         <v>17334</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>9667</v>
+        <v>9304</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>28905</v>
+        <v>28719</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.008877485342841988</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.004950996259204825</v>
+        <v>0.004764687632085898</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01480304676136075</v>
+        <v>0.01470787544457551</v>
       </c>
     </row>
     <row r="24">
@@ -2104,19 +2104,19 @@
         <v>4454</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1618</v>
+        <v>1629</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>12005</v>
+        <v>11154</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.003597034385186598</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.001306563576339755</v>
+        <v>0.001315210332913809</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.009694391571364917</v>
+        <v>0.009007094352795269</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>2</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>9411</v>
+        <v>10154</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.003576968449494623</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.01317485784045845</v>
+        <v>0.01421556174559662</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>6</v>
@@ -2146,19 +2146,19 @@
         <v>7009</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2547</v>
+        <v>2717</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>15866</v>
+        <v>15319</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.003589694090875078</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.001304646538752788</v>
+        <v>0.001391315598777064</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.008125714358593628</v>
+        <v>0.007845269655777448</v>
       </c>
     </row>
     <row r="25">
@@ -2175,19 +2175,19 @@
         <v>143351</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>121015</v>
+        <v>120300</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>170916</v>
+        <v>170689</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.115761435593044</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09772375287709673</v>
+        <v>0.09714683260468485</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1380211506565934</v>
+        <v>0.1378375496804757</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>75</v>
@@ -2196,19 +2196,19 @@
         <v>84439</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>67265</v>
+        <v>67142</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>104630</v>
+        <v>104638</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1182145398393471</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09417070541232052</v>
+        <v>0.09399912148842859</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1464820433855047</v>
+        <v>0.1464930430258037</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>199</v>
@@ -2217,19 +2217,19 @@
         <v>227790</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>198679</v>
+        <v>198603</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>259039</v>
+        <v>257459</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1166588025247992</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1017499308390437</v>
+        <v>0.1017112750484112</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1326623962467157</v>
+        <v>0.1318530151551857</v>
       </c>
     </row>
     <row r="26">
@@ -2246,19 +2246,19 @@
         <v>1070782</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1040846</v>
+        <v>1043531</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1094684</v>
+        <v>1093782</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8646957157640229</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8405210616529061</v>
+        <v>0.8426894332026109</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8839976760828373</v>
+        <v>0.8832692134787951</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>611</v>
@@ -2267,19 +2267,19 @@
         <v>619739</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>599734</v>
+        <v>599584</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>638594</v>
+        <v>639081</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8676352565702959</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8396281936342692</v>
+        <v>0.8394184184395305</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8940322783860101</v>
+        <v>0.8947146392619</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1689</v>
@@ -2288,19 +2288,19 @@
         <v>1690522</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1658376</v>
+        <v>1660288</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1722118</v>
+        <v>1722698</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.865771025432607</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8493080665480213</v>
+        <v>0.8502871557869016</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8819522914494541</v>
+        <v>0.8822495075033585</v>
       </c>
     </row>
     <row r="27">
@@ -2392,19 +2392,19 @@
         <v>3126</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>8399</v>
+        <v>8830</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.008917260749498045</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.002595463406531893</v>
+        <v>0.002585548665958381</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02395906231581818</v>
+        <v>0.02518771326237612</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>7</v>
@@ -2413,19 +2413,19 @@
         <v>6916</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3108</v>
+        <v>2969</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>13849</v>
+        <v>14220</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01215989145384145</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.005465471309706399</v>
+        <v>0.005220226651096414</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02434892739845713</v>
+        <v>0.02500168010908074</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>10</v>
@@ -2434,19 +2434,19 @@
         <v>10042</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4758</v>
+        <v>5003</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>17278</v>
+        <v>17447</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01092339358714208</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.005175168371577172</v>
+        <v>0.005442043435704563</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01879413860583468</v>
+        <v>0.0189788868898167</v>
       </c>
     </row>
     <row r="29">
@@ -2463,19 +2463,19 @@
         <v>4595</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1708</v>
+        <v>1871</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>10634</v>
+        <v>10639</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01310768464111915</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.004871608377391759</v>
+        <v>0.005338217238336067</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03033556334159193</v>
+        <v>0.0303487864146659</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>6450</v>
+        <v>5765</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.003249306685293497</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01134061220504333</v>
+        <v>0.01013628095752061</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7</v>
@@ -2505,19 +2505,19 @@
         <v>6443</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2936</v>
+        <v>2808</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>12913</v>
+        <v>13115</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.007008557868342671</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.003193690583033794</v>
+        <v>0.003054464942004928</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01404591816761486</v>
+        <v>0.01426596648606683</v>
       </c>
     </row>
     <row r="30">
@@ -2534,19 +2534,19 @@
         <v>3597</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>896</v>
+        <v>879</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>8906</v>
+        <v>9145</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.01026006351530342</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.002556732062300773</v>
+        <v>0.002507009632890505</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.02540404453332663</v>
+        <v>0.02608583418456574</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>3</v>
@@ -2558,16 +2558,16 @@
         <v>1006</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>11623</v>
+        <v>9836</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.006360720377051493</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.0017691379319865</v>
+        <v>0.001769230154125209</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02043555082179321</v>
+        <v>0.01729318120269053</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>7</v>
@@ -2576,19 +2576,19 @@
         <v>7214</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2737</v>
+        <v>3409</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>14380</v>
+        <v>15282</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.007847639459609689</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.002976756751321566</v>
+        <v>0.003708146737840132</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.0156427423655879</v>
+        <v>0.0166237857470898</v>
       </c>
     </row>
     <row r="31">
@@ -2605,19 +2605,19 @@
         <v>64709</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>50098</v>
+        <v>50594</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>82035</v>
+        <v>81350</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1845901265926754</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1429113184340124</v>
+        <v>0.1443259102502712</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2340146205125214</v>
+        <v>0.2320611228213247</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>60</v>
@@ -2626,19 +2626,19 @@
         <v>76309</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>58856</v>
+        <v>60345</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>96267</v>
+        <v>93332</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1341689752608952</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1034832756636959</v>
+        <v>0.1061004888306922</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1692592982089534</v>
+        <v>0.1640987788603832</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>113</v>
@@ -2647,19 +2647,19 @@
         <v>141018</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>118007</v>
+        <v>119957</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>166876</v>
+        <v>167178</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1533958474343938</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1283647852783004</v>
+        <v>0.1304861080127464</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1815236819080927</v>
+        <v>0.1818519370532976</v>
       </c>
     </row>
     <row r="32">
@@ -2676,19 +2676,19 @@
         <v>274528</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>257241</v>
+        <v>258676</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>289843</v>
+        <v>290226</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.783124864501404</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7338095622074038</v>
+        <v>0.7379029223868208</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8268109373900309</v>
+        <v>0.827905395494733</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>467</v>
@@ -2697,19 +2697,19 @@
         <v>480061</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>459387</v>
+        <v>461353</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>499059</v>
+        <v>497124</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8440611062229184</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8077106821578619</v>
+        <v>0.8111677985624552</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8774632107339017</v>
+        <v>0.8740610227412556</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>742</v>
@@ -2718,19 +2718,19 @@
         <v>754590</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>725906</v>
+        <v>728294</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>778088</v>
+        <v>776335</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8208245616505118</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7896227162147703</v>
+        <v>0.792220335490237</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8463853278595751</v>
+        <v>0.8444788283362736</v>
       </c>
     </row>
     <row r="33">
@@ -2822,19 +2822,19 @@
         <v>3724</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>982</v>
+        <v>973</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>9646</v>
+        <v>9271</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01248838341603178</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.003291804467500016</v>
+        <v>0.003263868041233184</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03234728259046204</v>
+        <v>0.03109019583049429</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>3</v>
@@ -2843,19 +2843,19 @@
         <v>2866</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>7770</v>
+        <v>7708</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.002295312510578143</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.0007293522625580824</v>
+        <v>0.000725912885416665</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.006222083173651441</v>
+        <v>0.006172440797889991</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>7</v>
@@ -2864,19 +2864,19 @@
         <v>6590</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>2814</v>
+        <v>2804</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>13419</v>
+        <v>13946</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.004260184645654527</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.001818975124801641</v>
+        <v>0.001812400145801107</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.00867434234745388</v>
+        <v>0.009015351765946337</v>
       </c>
     </row>
     <row r="35">
@@ -2893,19 +2893,19 @@
         <v>3931</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>9878</v>
+        <v>9837</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01318302690606455</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.003285813806054648</v>
+        <v>0.003318419538177356</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.03312535576387574</v>
+        <v>0.03298732106515846</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>6</v>
@@ -2914,19 +2914,19 @@
         <v>5955</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>2096</v>
+        <v>2740</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>12420</v>
+        <v>11879</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.004768379750518434</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.001678228244127779</v>
+        <v>0.002194032985684261</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.009946214436269914</v>
+        <v>0.009512446530161428</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>10</v>
@@ -2935,19 +2935,19 @@
         <v>9886</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>5064</v>
+        <v>4937</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>17621</v>
+        <v>17678</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.006390433190133596</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.003273400399579276</v>
+        <v>0.003191615675719872</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.01139062132858786</v>
+        <v>0.01142746669163906</v>
       </c>
     </row>
     <row r="36">
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>5473</v>
+        <v>4551</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.003026662996878984</v>
@@ -2976,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.01835345619968469</v>
+        <v>0.01526283042464968</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>6</v>
@@ -2985,19 +2985,19 @@
         <v>6288</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2615</v>
+        <v>2214</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>12711</v>
+        <v>13172</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.005035726982800484</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.002094003446968</v>
+        <v>0.001773223771726369</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.0101790655561936</v>
+        <v>0.01054801453851436</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>7</v>
@@ -3006,19 +3006,19 @@
         <v>7191</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>2892</v>
+        <v>2910</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>14497</v>
+        <v>14184</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.004648448813136172</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.001869220206414903</v>
+        <v>0.001881226952167536</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.009371194598502447</v>
+        <v>0.009168889516032522</v>
       </c>
     </row>
     <row r="37">
@@ -3035,19 +3035,19 @@
         <v>24323</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>15333</v>
+        <v>15161</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>35945</v>
+        <v>36082</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.08156441567376778</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.05141763067318721</v>
+        <v>0.05084136776130099</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.120539199828284</v>
+        <v>0.1209994854173387</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>74</v>
@@ -3056,19 +3056,19 @@
         <v>83247</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>65978</v>
+        <v>66921</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>103725</v>
+        <v>101335</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.06666365497699848</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.0528351679478915</v>
+        <v>0.05359032799184239</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.08306220349633109</v>
+        <v>0.08114863745061389</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>96</v>
@@ -3077,19 +3077,19 @@
         <v>107569</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>87839</v>
+        <v>89079</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>131064</v>
+        <v>131183</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.0695360071617418</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.05678191164188188</v>
+        <v>0.0575833132833846</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.0847234450121349</v>
+        <v>0.08480065671802432</v>
       </c>
     </row>
     <row r="38">
@@ -3106,19 +3106,19 @@
         <v>265321</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>251869</v>
+        <v>252288</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>274749</v>
+        <v>275756</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.889737511007257</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.8446275091999761</v>
+        <v>0.8460347459874685</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9213542775409089</v>
+        <v>0.9247308953177561</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>1149</v>
@@ -3127,19 +3127,19 @@
         <v>1150404</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>1127812</v>
+        <v>1130331</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>1169779</v>
+        <v>1168563</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.9212369257791044</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.9031458795364867</v>
+        <v>0.9051631100748647</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9367528195381598</v>
+        <v>0.9357785373780776</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1424</v>
@@ -3148,19 +3148,19 @@
         <v>1415724</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1392326</v>
+        <v>1388470</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1438890</v>
+        <v>1438068</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.9151649261893339</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.9000398563546433</v>
+        <v>0.8975472067641174</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9301406542104501</v>
+        <v>0.9296090733005102</v>
       </c>
     </row>
     <row r="39">
@@ -3252,19 +3252,19 @@
         <v>15135</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>9210</v>
+        <v>9030</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>24891</v>
+        <v>24532</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.004628314841744848</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.002816472499223124</v>
+        <v>0.002761193311902676</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.007611573507537471</v>
+        <v>0.007501760549596503</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>16</v>
@@ -3273,19 +3273,19 @@
         <v>16827</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>9370</v>
+        <v>9658</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>26706</v>
+        <v>27092</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.004981081277123799</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.002773807066684379</v>
+        <v>0.002858847414983754</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.007905487300663811</v>
+        <v>0.008019925249401146</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>31</v>
@@ -3294,19 +3294,19 @@
         <v>31962</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>21474</v>
+        <v>22366</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>45133</v>
+        <v>45348</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.004807561604991892</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.003230015305288079</v>
+        <v>0.003364086292836944</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.00678867810796205</v>
+        <v>0.006820989400175048</v>
       </c>
     </row>
     <row r="41">
@@ -3323,19 +3323,19 @@
         <v>26816</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>17704</v>
+        <v>17590</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>40152</v>
+        <v>38419</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.008200035643259693</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.005413823574706858</v>
+        <v>0.005378926306565387</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.01227832844468805</v>
+        <v>0.01174815923157601</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>13</v>
@@ -3344,19 +3344,19 @@
         <v>13454</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>7269</v>
+        <v>7732</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>22130</v>
+        <v>22813</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.003982606695487599</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.002151665850121279</v>
+        <v>0.002288855235475093</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.006550986745609596</v>
+        <v>0.006753275733347316</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>39</v>
@@ -3365,19 +3365,19 @@
         <v>40269</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>29163</v>
+        <v>29041</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>55647</v>
+        <v>53779</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.006057086620061209</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.004386522275768585</v>
+        <v>0.00436818368614022</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.008370024539030843</v>
+        <v>0.008089065851963388</v>
       </c>
     </row>
     <row r="42">
@@ -3394,19 +3394,19 @@
         <v>14493</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>8125</v>
+        <v>8115</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>24218</v>
+        <v>23248</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.004431735820338171</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.002484532168527919</v>
+        <v>0.002481616896253107</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.007405631052345012</v>
+        <v>0.007109059069202717</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>13</v>
@@ -3415,19 +3415,19 @@
         <v>14405</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>7304</v>
+        <v>7995</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>23998</v>
+        <v>24256</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.004264303620583787</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.00216213709408554</v>
+        <v>0.002366636274693032</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.007103958604408474</v>
+        <v>0.007180438362428927</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>27</v>
@@ -3436,19 +3436,19 @@
         <v>28898</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>18392</v>
+        <v>19220</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>40530</v>
+        <v>41827</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.004346660606657293</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.002766467198757219</v>
+        <v>0.002890994371807089</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.006096227098476499</v>
+        <v>0.006291321315218851</v>
       </c>
     </row>
     <row r="43">
@@ -3465,19 +3465,19 @@
         <v>393213</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>350850</v>
+        <v>349578</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>432762</v>
+        <v>434262</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.120241590753952</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1072871968571242</v>
+        <v>0.1068982357118866</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1323354694243889</v>
+        <v>0.1327942229911731</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>306</v>
@@ -3486,19 +3486,19 @@
         <v>348405</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>313515</v>
+        <v>313895</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>390698</v>
+        <v>386541</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1031357072407913</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.09280753478559284</v>
+        <v>0.09291987478848626</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1156553122483817</v>
+        <v>0.1144248284462208</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>645</v>
@@ -3507,19 +3507,19 @@
         <v>741618</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>689589</v>
+        <v>685541</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>804697</v>
+        <v>797745</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1115497937327267</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1037239567768842</v>
+        <v>0.1031150256802645</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1210377479967926</v>
+        <v>0.1199920033177448</v>
       </c>
     </row>
     <row r="44">
@@ -3536,19 +3536,19 @@
         <v>2820533</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>2777828</v>
+        <v>2777569</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>2860382</v>
+        <v>2866661</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.8624983229407053</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.8494394485882498</v>
+        <v>0.8493601722439471</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.874683725074093</v>
+        <v>0.8766038158772702</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>2948</v>
@@ -3557,19 +3557,19 @@
         <v>2985033</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>2943261</v>
+        <v>2947967</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>3024067</v>
+        <v>3022579</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.8836363011660134</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.8712708570243468</v>
+        <v>0.8726638314883204</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.8951912488779661</v>
+        <v>0.8947506601427049</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>5761</v>
@@ -3578,19 +3578,19 @@
         <v>5805566</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>5745979</v>
+        <v>5743897</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>5859710</v>
+        <v>5860662</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.8732388974355628</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.8642761187626129</v>
+        <v>0.8639629350643085</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.8813828388907439</v>
+        <v>0.8815260632779124</v>
       </c>
     </row>
     <row r="45">
@@ -3924,19 +3924,19 @@
         <v>4729</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>957</v>
+        <v>1727</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12613</v>
+        <v>12335</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01083799814961695</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00219336866034248</v>
+        <v>0.003958401808273121</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02890588640104035</v>
+        <v>0.02826863013276221</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7261</v>
+        <v>7388</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.006382720489475425</v>
@@ -3957,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02309031004606053</v>
+        <v>0.02349416535055287</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -3966,19 +3966,19 @@
         <v>6736</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2735</v>
+        <v>1985</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14103</v>
+        <v>13850</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.008971979079234632</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003643098244941324</v>
+        <v>0.002643321815944867</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01878402298075804</v>
+        <v>0.01844769981676618</v>
       </c>
     </row>
     <row r="5">
@@ -4089,19 +4089,19 @@
         <v>53261</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>39902</v>
+        <v>39085</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>71480</v>
+        <v>69792</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1220660613350534</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09144933875066326</v>
+        <v>0.08957517111891568</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1638204271710979</v>
+        <v>0.1599522299269946</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>41</v>
@@ -4110,19 +4110,19 @@
         <v>47321</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>35618</v>
+        <v>35464</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>64297</v>
+        <v>63350</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1504853989440721</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1132701807261436</v>
+        <v>0.1127795407402267</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2044714882263686</v>
+        <v>0.2014612385957766</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>86</v>
@@ -4131,19 +4131,19 @@
         <v>100582</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>81453</v>
+        <v>79702</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>121495</v>
+        <v>122606</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1339690290042733</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1084898154758687</v>
+        <v>0.1061575489667446</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1618233942725465</v>
+        <v>0.1633036000599714</v>
       </c>
     </row>
     <row r="8">
@@ -4160,19 +4160,19 @@
         <v>378342</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>361528</v>
+        <v>361380</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>392881</v>
+        <v>392972</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8670959405153297</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8285618698646848</v>
+        <v>0.8282226948221253</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9004175481338125</v>
+        <v>0.9006261704743581</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>240</v>
@@ -4181,19 +4181,19 @@
         <v>265126</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>248777</v>
+        <v>248851</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>276794</v>
+        <v>276712</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8431318805664524</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7911403395057468</v>
+        <v>0.7913733754509634</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8802382263588736</v>
+        <v>0.8799758899837191</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>594</v>
@@ -4202,19 +4202,19 @@
         <v>643468</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>622818</v>
+        <v>620554</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>662221</v>
+        <v>664315</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.857058991916492</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8295551552731725</v>
+        <v>0.8265394142648762</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8820370707244448</v>
+        <v>0.8848253788458856</v>
       </c>
     </row>
     <row r="9">
@@ -4306,19 +4306,19 @@
         <v>6044</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2011</v>
+        <v>1960</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15775</v>
+        <v>15132</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01443208012025597</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004801819591060815</v>
+        <v>0.004680236662032353</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03766798084960465</v>
+        <v>0.0361313855276541</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -4327,19 +4327,19 @@
         <v>7300</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3085</v>
+        <v>3201</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14843</v>
+        <v>15260</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02167358604526434</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.009158977462092755</v>
+        <v>0.009504092948712456</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04406761335735993</v>
+        <v>0.04530664146022487</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>12</v>
@@ -4348,19 +4348,19 @@
         <v>13344</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6869</v>
+        <v>7467</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>23294</v>
+        <v>23224</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01766002565635791</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.009090521645048578</v>
+        <v>0.009882356923152539</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03082716325381273</v>
+        <v>0.03073503536760077</v>
       </c>
     </row>
     <row r="11">
@@ -4471,19 +4471,19 @@
         <v>57193</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>43410</v>
+        <v>42591</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>73887</v>
+        <v>72966</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1365647910483735</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1036541382009175</v>
+        <v>0.1016985326643024</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1764268227138493</v>
+        <v>0.1742264407622794</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>40</v>
@@ -4492,19 +4492,19 @@
         <v>43123</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>32096</v>
+        <v>32285</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>56917</v>
+        <v>57663</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1280302528422264</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09529049941097001</v>
+        <v>0.09585311895389252</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1689831972584559</v>
+        <v>0.1711973704298312</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>91</v>
@@ -4513,19 +4513,19 @@
         <v>100316</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>80075</v>
+        <v>80309</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>121438</v>
+        <v>121147</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1327604684681649</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1059729330719454</v>
+        <v>0.1062829234921757</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1607134618770615</v>
+        <v>0.1603280247081302</v>
       </c>
     </row>
     <row r="14">
@@ -4542,19 +4542,19 @@
         <v>355560</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>336630</v>
+        <v>339641</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>369487</v>
+        <v>371305</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8490031288313705</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8038012799799883</v>
+        <v>0.8109919300908777</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8822581776030896</v>
+        <v>0.8865986689458946</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>257</v>
@@ -4563,19 +4563,19 @@
         <v>286398</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>271301</v>
+        <v>272282</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>299067</v>
+        <v>298716</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8502961611125092</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8054721197099068</v>
+        <v>0.8083860221032247</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.887907629578079</v>
+        <v>0.8868662326357689</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>576</v>
@@ -4584,19 +4584,19 @@
         <v>641958</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>619526</v>
+        <v>621315</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>662242</v>
+        <v>661870</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8495795058754771</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8198924619858357</v>
+        <v>0.8222606139082203</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8764246086568214</v>
+        <v>0.8759315118801578</v>
       </c>
     </row>
     <row r="15">
@@ -4688,19 +4688,19 @@
         <v>10598</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5374</v>
+        <v>5417</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18923</v>
+        <v>19950</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01683824392739097</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008538808300991112</v>
+        <v>0.008606920070175703</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03006366447412764</v>
+        <v>0.03169569026662047</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -4712,7 +4712,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6739</v>
+        <v>5842</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.007399653035579037</v>
@@ -4721,7 +4721,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02590819449357282</v>
+        <v>0.02245760900292128</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -4730,19 +4730,19 @@
         <v>12523</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6688</v>
+        <v>7039</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>21515</v>
+        <v>20491</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01407811673928796</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.007518338169603825</v>
+        <v>0.007913501018848686</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02418622336133106</v>
+        <v>0.02303528412380379</v>
       </c>
     </row>
     <row r="17">
@@ -4762,7 +4762,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6650</v>
+        <v>7041</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.003103017266575413</v>
@@ -4771,7 +4771,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01056484106283295</v>
+        <v>0.01118634888877809</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -4783,7 +4783,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>9316</v>
+        <v>9273</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.007174413053368707</v>
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03581247003599303</v>
+        <v>0.03564882883691275</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3</v>
@@ -4801,19 +4801,19 @@
         <v>3819</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>937</v>
+        <v>917</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>11552</v>
+        <v>12390</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.00429361555963258</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.001053485726235639</v>
+        <v>0.001031041007723492</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01298648848806109</v>
+        <v>0.01392864180937581</v>
       </c>
     </row>
     <row r="18">
@@ -4877,19 +4877,19 @@
         <v>54522</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>41288</v>
+        <v>40387</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>70736</v>
+        <v>71840</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08662363308757659</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06559753198549259</v>
+        <v>0.06416648484457363</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1123829369040648</v>
+        <v>0.114137061582166</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>19</v>
@@ -4898,19 +4898,19 @@
         <v>20877</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>12111</v>
+        <v>12843</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>32075</v>
+        <v>32046</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0802557998683025</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04655617242855082</v>
+        <v>0.04937278039287762</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1233059699604573</v>
+        <v>0.1231943190001845</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>69</v>
@@ -4919,19 +4919,19 @@
         <v>75399</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>59007</v>
+        <v>59743</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>96506</v>
+        <v>94578</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08476148758309549</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06633362854672031</v>
+        <v>0.06716152829317795</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1084890135795165</v>
+        <v>0.1063219136745116</v>
       </c>
     </row>
     <row r="20">
@@ -4948,19 +4948,19 @@
         <v>562341</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>546206</v>
+        <v>542689</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>578863</v>
+        <v>578595</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8934351057184571</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8677998356422312</v>
+        <v>0.8622123734093303</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9196845760767378</v>
+        <v>0.9192581886633194</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>222</v>
@@ -4969,19 +4969,19 @@
         <v>235461</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>224151</v>
+        <v>223822</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>245484</v>
+        <v>244437</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9051701340427497</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.861692976139826</v>
+        <v>0.8604260199418271</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9437007643168513</v>
+        <v>0.9396763417004023</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>751</v>
@@ -4990,19 +4990,19 @@
         <v>797802</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>775560</v>
+        <v>776686</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>814241</v>
+        <v>814779</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8968667801179839</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8718619556818291</v>
+        <v>0.8731285103040501</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9153460077736609</v>
+        <v>0.9159518009842205</v>
       </c>
     </row>
     <row r="21">
@@ -5094,19 +5094,19 @@
         <v>11817</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6756</v>
+        <v>6134</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>19852</v>
+        <v>19442</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01021258894614005</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.005838980105906841</v>
+        <v>0.005300952801210322</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01715747036937953</v>
+        <v>0.01680279373638197</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>10</v>
@@ -5115,19 +5115,19 @@
         <v>11107</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5988</v>
+        <v>5936</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>21538</v>
+        <v>20720</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01450892557195527</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.00782208247346167</v>
+        <v>0.007753729345375346</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02813386392253076</v>
+        <v>0.02706590595960467</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>22</v>
@@ -5136,19 +5136,19 @@
         <v>22924</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>14569</v>
+        <v>14863</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>34035</v>
+        <v>34253</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01192330388577987</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.007577448333562067</v>
+        <v>0.007730774123902188</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01770246262202576</v>
+        <v>0.01781582972769354</v>
       </c>
     </row>
     <row r="23">
@@ -5165,19 +5165,19 @@
         <v>3886</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>969</v>
+        <v>1016</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>9777</v>
+        <v>9627</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.003358471207035522</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0008371750068406026</v>
+        <v>0.0008783083486102592</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.008450169667408738</v>
+        <v>0.008319810847748948</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>0</v>
@@ -5199,19 +5199,19 @@
         <v>3886</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>9611</v>
+        <v>9903</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.002021195437324238</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.00050307701311152</v>
+        <v>0.0005034767315464471</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.004999079492256912</v>
+        <v>0.005150525781520311</v>
       </c>
     </row>
     <row r="24">
@@ -5275,19 +5275,19 @@
         <v>174005</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>147156</v>
+        <v>148041</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>201626</v>
+        <v>200185</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1503835950077392</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1271794027660742</v>
+        <v>0.1279448978408075</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1742554855757725</v>
+        <v>0.1730097929782662</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>124</v>
@@ -5296,19 +5296,19 @@
         <v>142199</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>118851</v>
+        <v>121225</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>164509</v>
+        <v>165439</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1857483636757987</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1552492238279879</v>
+        <v>0.1583509646666048</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2148906813946117</v>
+        <v>0.2161052614330102</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>275</v>
@@ -5317,19 +5317,19 @@
         <v>316204</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>283239</v>
+        <v>283652</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>350832</v>
+        <v>354731</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1644651354843018</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1473194023005092</v>
+        <v>0.1475340512797963</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1824759019074877</v>
+        <v>0.1845036604023684</v>
       </c>
     </row>
     <row r="26">
@@ -5346,19 +5346,19 @@
         <v>967365</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>938613</v>
+        <v>941019</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>994784</v>
+        <v>992156</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8360453448390852</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8111971041272963</v>
+        <v>0.813275932476588</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8597424496451229</v>
+        <v>0.8574712833549671</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>576</v>
@@ -5367,19 +5367,19 @@
         <v>612242</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>589780</v>
+        <v>587255</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>636253</v>
+        <v>633530</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.799742710752246</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7704009538661988</v>
+        <v>0.7671026632095116</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8311065423800149</v>
+        <v>0.8275497228840755</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1490</v>
@@ -5388,19 +5388,19 @@
         <v>1579607</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1544114</v>
+        <v>1539488</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1613190</v>
+        <v>1612653</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8215903651925941</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8031295864045187</v>
+        <v>0.8007235938355756</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8390576693032554</v>
+        <v>0.8387782274983705</v>
       </c>
     </row>
     <row r="27">
@@ -5492,19 +5492,19 @@
         <v>7687</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3708</v>
+        <v>3045</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>15107</v>
+        <v>14607</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01508264182581003</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.007275126319975176</v>
+        <v>0.005973959826927966</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02964210089595435</v>
+        <v>0.02866146856156606</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>8</v>
@@ -5513,19 +5513,19 @@
         <v>9414</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>4159</v>
+        <v>4055</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>18347</v>
+        <v>17491</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01239721992246478</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.005476054445039865</v>
+        <v>0.005340368650918048</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02415934038710719</v>
+        <v>0.02303277892577368</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>16</v>
@@ -5534,19 +5534,19 @@
         <v>17101</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>10527</v>
+        <v>9961</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>28204</v>
+        <v>26889</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01347568467329465</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.008295355314342997</v>
+        <v>0.007849248678458874</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02222465301966859</v>
+        <v>0.02118826390858691</v>
       </c>
     </row>
     <row r="29">
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>6809</v>
+        <v>5895</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.003829230030588032</v>
@@ -5575,7 +5575,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01336078296076151</v>
+        <v>0.01156710547191578</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4</v>
@@ -5584,19 +5584,19 @@
         <v>4077</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1027</v>
+        <v>986</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>10272</v>
+        <v>10190</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.00536851258156246</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.001352107102177031</v>
+        <v>0.001298782471702694</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01352625034695212</v>
+        <v>0.0134186463477059</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6</v>
@@ -5605,19 +5605,19 @@
         <v>6028</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2223</v>
+        <v>2115</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>13907</v>
+        <v>12230</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.004750337102050113</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.001751816506291835</v>
+        <v>0.001666745056328147</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01095895788298932</v>
+        <v>0.009637203384113245</v>
       </c>
     </row>
     <row r="30">
@@ -5681,19 +5681,19 @@
         <v>83032</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>67728</v>
+        <v>66025</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>102498</v>
+        <v>100344</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1629190004000842</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.132890760596877</v>
+        <v>0.1295492217756779</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2011140347477539</v>
+        <v>0.1968876306864458</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>80</v>
@@ -5702,19 +5702,19 @@
         <v>87930</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>71027</v>
+        <v>71620</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>108759</v>
+        <v>107073</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1157887580995881</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.09353101424938362</v>
+        <v>0.09431173489669532</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1432165578414932</v>
+        <v>0.1409965877381809</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>154</v>
@@ -5723,19 +5723,19 @@
         <v>170961</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>145159</v>
+        <v>145774</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>193402</v>
+        <v>195690</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1347162513757243</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1143838114584358</v>
+        <v>0.1148684359627554</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1523992220650362</v>
+        <v>0.1542022453881549</v>
       </c>
     </row>
     <row r="32">
@@ -5752,19 +5752,19 @@
         <v>416979</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>397592</v>
+        <v>398915</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>433381</v>
+        <v>434372</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8181691277435177</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7801292879381648</v>
+        <v>0.7827246727533484</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8503516275537319</v>
+        <v>0.8522968493971382</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>609</v>
@@ -5773,19 +5773,19 @@
         <v>657978</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>635342</v>
+        <v>637655</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>674888</v>
+        <v>675590</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8664455093963846</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8366378022881579</v>
+        <v>0.839683114206074</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8887136694642928</v>
+        <v>0.8896381266551726</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1011</v>
@@ -5794,19 +5794,19 @@
         <v>1074957</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1050715</v>
+        <v>1050071</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1101505</v>
+        <v>1102157</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.847057726848931</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.827955448278513</v>
+        <v>0.8274474442497346</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8679774849437339</v>
+        <v>0.8684914510117563</v>
       </c>
     </row>
     <row r="33">
@@ -5901,16 +5901,16 @@
         <v>974</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>8659</v>
+        <v>8662</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01180757139835576</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.003647680791782641</v>
+        <v>0.003651208797707172</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03244485827927718</v>
+        <v>0.03245590523416086</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>9</v>
@@ -5919,19 +5919,19 @@
         <v>9740</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>4812</v>
+        <v>4894</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>19146</v>
+        <v>18284</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.008779533055283383</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.004338110657516291</v>
+        <v>0.004412015417098091</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01725885211254821</v>
+        <v>0.01648164231547756</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>12</v>
@@ -5940,19 +5940,19 @@
         <v>12891</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>6927</v>
+        <v>6936</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>22353</v>
+        <v>22097</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.009366736384079593</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.005033319692906383</v>
+        <v>0.005039565581140745</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01624192834059672</v>
+        <v>0.01605614452143278</v>
       </c>
     </row>
     <row r="35">
@@ -5985,7 +5985,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>5433</v>
+        <v>5703</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.0009136343396717146</v>
@@ -5994,7 +5994,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.004897763491176421</v>
+        <v>0.005140927033523874</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>1</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>5075</v>
+        <v>6610</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.0007364605179514079</v>
@@ -6015,7 +6015,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.003687607356124738</v>
+        <v>0.004802814320154239</v>
       </c>
     </row>
     <row r="36">
@@ -6079,19 +6079,19 @@
         <v>28125</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>18556</v>
+        <v>19103</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>39001</v>
+        <v>40185</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1053838300148934</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.06952981650283774</v>
+        <v>0.07157828056629438</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1461368983274475</v>
+        <v>0.1505733358941151</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>92</v>
@@ -6100,19 +6100,19 @@
         <v>100353</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>82136</v>
+        <v>82621</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>121758</v>
+        <v>122276</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.09046119500600994</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.07404006457556683</v>
+        <v>0.0744765846871465</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1097561657079256</v>
+        <v>0.1102233755543586</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>118</v>
@@ -6121,19 +6121,19 @@
         <v>128478</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>106557</v>
+        <v>107067</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>153290</v>
+        <v>151557</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.09335502261280844</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.07742689694027419</v>
+        <v>0.07779747958945937</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1113839234948518</v>
+        <v>0.110124333241339</v>
       </c>
     </row>
     <row r="38">
@@ -6150,19 +6150,19 @@
         <v>235606</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>224499</v>
+        <v>224112</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>245292</v>
+        <v>245427</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.8828085985867508</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.8411907012919384</v>
+        <v>0.8397415229247215</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9191010474514856</v>
+        <v>0.9196081029251677</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>942</v>
@@ -6171,19 +6171,19 @@
         <v>998245</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>975502</v>
+        <v>976253</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>1017062</v>
+        <v>1017711</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.899845637599035</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.8793450031048672</v>
+        <v>0.8800213723717767</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.916808475872763</v>
+        <v>0.9173927593694347</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1178</v>
@@ -6192,19 +6192,19 @@
         <v>1233850</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1208719</v>
+        <v>1206112</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1256600</v>
+        <v>1255714</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.8965417804851605</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.8782806023488501</v>
+        <v>0.8763864947917188</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9130724882468011</v>
+        <v>0.9124280308415256</v>
       </c>
     </row>
     <row r="39">
@@ -6296,19 +6296,19 @@
         <v>44026</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>32711</v>
+        <v>31835</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>59844</v>
+        <v>60122</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.01288010865870333</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.009569850607636659</v>
+        <v>0.00931361748216895</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.01750779244109112</v>
+        <v>0.01758898541080779</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>38</v>
@@ -6317,19 +6317,19 @@
         <v>41493</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>30358</v>
+        <v>31016</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>56829</v>
+        <v>56925</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.01170243810419368</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.008561834623047757</v>
+        <v>0.008747624336146719</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.01602752707096912</v>
+        <v>0.01605472145606441</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>80</v>
@@ -6338,19 +6338,19 @@
         <v>85519</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>68402</v>
+        <v>68221</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>107291</v>
+        <v>106491</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.01228048761144153</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.009822432290660783</v>
+        <v>0.009796380442464423</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.01540691412058262</v>
+        <v>0.01529191171872413</v>
       </c>
     </row>
     <row r="41">
@@ -6367,19 +6367,19 @@
         <v>7791</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>3801</v>
+        <v>3839</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>15686</v>
+        <v>14629</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.002279200699512291</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.00111207788605856</v>
+        <v>0.001123194285945023</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.004589161382959925</v>
+        <v>0.004279832479157322</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>6</v>
@@ -6388,19 +6388,19 @@
         <v>6957</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>2874</v>
+        <v>2946</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>14616</v>
+        <v>15063</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.001961996438427978</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.0008105349164811544</v>
+        <v>0.0008308072522901555</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.004122165516076028</v>
+        <v>0.004248259650340838</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>14</v>
@@ -6409,19 +6409,19 @@
         <v>14747</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>8795</v>
+        <v>8685</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>26048</v>
+        <v>23711</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.002117693433750283</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.001262904981205215</v>
+        <v>0.001247150732646809</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.003740447939124811</v>
+        <v>0.003404835496623502</v>
       </c>
     </row>
     <row r="42">
@@ -6485,19 +6485,19 @@
         <v>450138</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>409196</v>
+        <v>412562</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>496959</v>
+        <v>493051</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1316905568583483</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1197128330481949</v>
+        <v>0.1206976705627395</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1453885680969408</v>
+        <v>0.1442452599409178</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>396</v>
@@ -6506,19 +6506,19 @@
         <v>441804</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>398815</v>
+        <v>405491</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>481749</v>
+        <v>490725</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1246024833213751</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1124783003354291</v>
+        <v>0.1143613093112284</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1358682754595001</v>
+        <v>0.1383999414772239</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>793</v>
@@ -6527,19 +6527,19 @@
         <v>891941</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>831214</v>
+        <v>828971</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>947793</v>
+        <v>946453</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1280816035215824</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1193612476521526</v>
+        <v>0.1190392249373839</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1361019358331157</v>
+        <v>0.1359094572485975</v>
       </c>
     </row>
     <row r="44">
@@ -6556,19 +6556,19 @@
         <v>2916192</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>2868616</v>
+        <v>2874122</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>2960333</v>
+        <v>2957662</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.8531501337834361</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.8392315186726831</v>
+        <v>0.8408423761346575</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.866064051465226</v>
+        <v>0.8652824124040704</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>2846</v>
@@ -6577,19 +6577,19 @@
         <v>3055450</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>3009063</v>
+        <v>3007637</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>3096556</v>
+        <v>3095377</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.8617330821360032</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.8486502643589943</v>
+        <v>0.8482481343052226</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.8733260594493736</v>
+        <v>0.8729937486134037</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>5600</v>
@@ -6598,19 +6598,19 @@
         <v>5971642</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>5910986</v>
+        <v>5911578</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>6035752</v>
+        <v>6038203</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.8575202154332258</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.8488100151949045</v>
+        <v>0.8488951147676642</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.8667262879024918</v>
+        <v>0.8670783055775573</v>
       </c>
     </row>
     <row r="45">
@@ -6960,7 +6960,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5051</v>
+        <v>4704</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002357786404332376</v>
@@ -6969,7 +6969,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0145953121617453</v>
+        <v>0.0135924550850636</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -6981,7 +6981,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4126</v>
+        <v>4104</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001053922373769514</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.005329810465058074</v>
+        <v>0.005301621872064076</v>
       </c>
     </row>
     <row r="5">
@@ -7023,7 +7023,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>4680</v>
+        <v>4228</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.002545806277660382</v>
@@ -7032,7 +7032,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01352242470677317</v>
+        <v>0.01221663588883453</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1</v>
@@ -7044,7 +7044,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>4457</v>
+        <v>4397</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.001137966607313988</v>
@@ -7053,7 +7053,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.005757012026585239</v>
+        <v>0.005679641677055637</v>
       </c>
     </row>
     <row r="6">
@@ -7117,19 +7117,19 @@
         <v>80164</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>65047</v>
+        <v>63891</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>98533</v>
+        <v>99138</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1872433774012728</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1519349256104172</v>
+        <v>0.1492340559421363</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2301480673657188</v>
+        <v>0.2315622643339709</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>47</v>
@@ -7138,19 +7138,19 @@
         <v>47507</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>36328</v>
+        <v>36509</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>62023</v>
+        <v>61932</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1372791003929983</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.104975870035592</v>
+        <v>0.1054999628099578</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1792276495106199</v>
+        <v>0.1789651077579097</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>117</v>
@@ -7159,19 +7159,19 @@
         <v>127670</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>107158</v>
+        <v>107412</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>151277</v>
+        <v>150810</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.164909518264805</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1384142588672334</v>
+        <v>0.1387426634972489</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1954011620829842</v>
+        <v>0.1947987750982526</v>
       </c>
     </row>
     <row r="8">
@@ -7188,19 +7188,19 @@
         <v>347963</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>329594</v>
+        <v>328989</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>363080</v>
+        <v>364236</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8127566225987272</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7698519326342811</v>
+        <v>0.7684377356660291</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8480650743895828</v>
+        <v>0.8507659440578638</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>282</v>
@@ -7209,19 +7209,19 @@
         <v>296855</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>282925</v>
+        <v>282076</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>308095</v>
+        <v>308338</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8578173069250089</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8175665845081105</v>
+        <v>0.815112976865723</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8902976249682453</v>
+        <v>0.8910003802173251</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>607</v>
@@ -7230,19 +7230,19 @@
         <v>644818</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>621312</v>
+        <v>621652</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>665238</v>
+        <v>665227</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8328985927541115</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8025364042376302</v>
+        <v>0.802975605552393</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8592755470521021</v>
+        <v>0.8592616020249841</v>
       </c>
     </row>
     <row r="9">
@@ -7337,7 +7337,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6058</v>
+        <v>6537</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.00499064478272696</v>
@@ -7346,7 +7346,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01617533755850853</v>
+        <v>0.01745435904506924</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -7355,19 +7355,19 @@
         <v>2852</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>912</v>
+        <v>903</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7808</v>
+        <v>7696</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.007680094565052285</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.002457020924498922</v>
+        <v>0.00243067718406533</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02102707207746407</v>
+        <v>0.02072448549382597</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -7376,19 +7376,19 @@
         <v>4721</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1842</v>
+        <v>1852</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>11210</v>
+        <v>10462</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.006329678066305098</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002469813004553887</v>
+        <v>0.002482898015714113</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01502889338961211</v>
+        <v>0.01402719529086898</v>
       </c>
     </row>
     <row r="11">
@@ -7421,7 +7421,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6869</v>
+        <v>6784</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.005276330407930915</v>
@@ -7430,7 +7430,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01849645388761752</v>
+        <v>0.0182687912896235</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2</v>
@@ -7442,7 +7442,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>6884</v>
+        <v>6890</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.002626999053042844</v>
@@ -7451,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.009229800373147272</v>
+        <v>0.009237305014277714</v>
       </c>
     </row>
     <row r="12">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5647</v>
+        <v>4775</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.002648370075177575</v>
@@ -7480,7 +7480,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01507798435259177</v>
+        <v>0.01274946727185502</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1</v>
@@ -7492,7 +7492,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>4944</v>
+        <v>4912</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.002641741973971439</v>
@@ -7501,7 +7501,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.01331332024682725</v>
+        <v>0.01322783989289528</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2</v>
@@ -7513,7 +7513,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>5958</v>
+        <v>7308</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.002645070051440279</v>
@@ -7522,7 +7522,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.00798767897750874</v>
+        <v>0.009798565718061474</v>
       </c>
     </row>
     <row r="13">
@@ -7539,19 +7539,19 @@
         <v>45892</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>32761</v>
+        <v>32944</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>59935</v>
+        <v>61355</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1225396890520864</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08747794640420714</v>
+        <v>0.08796593899430931</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1600365222278969</v>
+        <v>0.1638261688708511</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>52</v>
@@ -7560,19 +7560,19 @@
         <v>57492</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>43476</v>
+        <v>43454</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>74284</v>
+        <v>72779</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1548174035490858</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1170750940755196</v>
+        <v>0.1170146781210496</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2000342039437943</v>
+        <v>0.1959835432959399</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>92</v>
@@ -7581,19 +7581,19 @@
         <v>103384</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>85633</v>
+        <v>86422</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>125637</v>
+        <v>126994</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1386102378733942</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1148099220279048</v>
+        <v>0.1158679586362593</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1684444365004528</v>
+        <v>0.1702638815524934</v>
       </c>
     </row>
     <row r="14">
@@ -7610,19 +7610,19 @@
         <v>325758</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>311317</v>
+        <v>310114</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>339095</v>
+        <v>338651</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.869821296090009</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8312622469198314</v>
+        <v>0.8280500322206868</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9054348300829542</v>
+        <v>0.9042477811956945</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>293</v>
@@ -7631,19 +7631,19 @@
         <v>308069</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>290528</v>
+        <v>291957</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>322331</v>
+        <v>322051</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8295844295039596</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7823489447049453</v>
+        <v>0.7861967581534715</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8679894818741043</v>
+        <v>0.8672355978174536</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>601</v>
@@ -7652,19 +7652,19 @@
         <v>633826</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>610014</v>
+        <v>610375</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>651983</v>
+        <v>651285</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8497880149558176</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8178621875797497</v>
+        <v>0.8183456091010967</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8741317472737445</v>
+        <v>0.8731951828177358</v>
       </c>
     </row>
     <row r="15">
@@ -7759,7 +7759,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8975</v>
+        <v>9191</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.00476244515488662</v>
@@ -7768,7 +7768,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01722242901730237</v>
+        <v>0.01763732190384923</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -7793,7 +7793,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>9461</v>
+        <v>9971</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.003611240754641571</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01376677663840882</v>
+        <v>0.01450947707421036</v>
       </c>
     </row>
     <row r="17">
@@ -7819,19 +7819,19 @@
         <v>4320</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1022</v>
+        <v>1427</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>11659</v>
+        <v>11837</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.008289771885856622</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.001960964383962211</v>
+        <v>0.00273859201006482</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02237392585124652</v>
+        <v>0.02271463707108839</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -7843,7 +7843,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4456</v>
+        <v>4961</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.005905396890545957</v>
@@ -7852,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02682212986256293</v>
+        <v>0.0298658019791097</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5</v>
@@ -7861,19 +7861,19 @@
         <v>5301</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1882</v>
+        <v>1939</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>11851</v>
+        <v>13030</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.00771340766597276</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.002738099223480097</v>
+        <v>0.002821419343026175</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01724486984909911</v>
+        <v>0.01895982571061784</v>
       </c>
     </row>
     <row r="18">
@@ -7906,7 +7906,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>6678</v>
+        <v>6599</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.007432168167618761</v>
@@ -7915,7 +7915,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.04020028145852349</v>
+        <v>0.03972520911899695</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1</v>
@@ -7927,7 +7927,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>6206</v>
+        <v>6766</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.001796544510154594</v>
@@ -7936,7 +7936,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.009030943153237785</v>
+        <v>0.009844599411425266</v>
       </c>
     </row>
     <row r="19">
@@ -7953,19 +7953,19 @@
         <v>64798</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>51238</v>
+        <v>50659</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>81399</v>
+        <v>83283</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1243456424649228</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09832400308453226</v>
+        <v>0.09721195809498213</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1562011127861875</v>
+        <v>0.1598164333663939</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>16</v>
@@ -7974,19 +7974,19 @@
         <v>18363</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>11153</v>
+        <v>10553</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>29203</v>
+        <v>28074</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1105396670393919</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06713749059631641</v>
+        <v>0.06352786443497853</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1757929150900232</v>
+        <v>0.1689942025383235</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>75</v>
@@ -7995,19 +7995,19 @@
         <v>83161</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>67062</v>
+        <v>66118</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>102517</v>
+        <v>101139</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1210083862566832</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0975814747032005</v>
+        <v>0.09620889039552423</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1491731014842505</v>
+        <v>0.147167525863835</v>
       </c>
     </row>
     <row r="20">
@@ -8024,19 +8024,19 @@
         <v>449515</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>431279</v>
+        <v>430664</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>463837</v>
+        <v>464085</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8626021404943339</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8276079506119733</v>
+        <v>0.8264273615117933</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8900853197870291</v>
+        <v>0.8905625299788941</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>135</v>
@@ -8045,19 +8045,19 @@
         <v>145544</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>134659</v>
+        <v>135403</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>153693</v>
+        <v>153679</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8761227679024434</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8105968638437018</v>
+        <v>0.8150772542357012</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9251733282943306</v>
+        <v>0.9250917484005607</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>571</v>
@@ -8066,19 +8066,19 @@
         <v>595058</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>574299</v>
+        <v>577144</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>611979</v>
+        <v>612153</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8658704208125479</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8356642193097936</v>
+        <v>0.8398029126341646</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8904912778680256</v>
+        <v>0.8907448474460921</v>
       </c>
     </row>
     <row r="21">
@@ -8170,19 +8170,19 @@
         <v>5118</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1974</v>
+        <v>2015</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>11232</v>
+        <v>11411</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.004451868146035337</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.001717412167600402</v>
+        <v>0.001752440793759045</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.009769757881851557</v>
+        <v>0.009925800290556442</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>5</v>
@@ -8191,19 +8191,19 @@
         <v>4731</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1855</v>
+        <v>1844</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>10829</v>
+        <v>10586</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.00573527023516192</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.002248576343580032</v>
+        <v>0.002235984159038895</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01312736649400397</v>
+        <v>0.01283252662297008</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>10</v>
@@ -8212,19 +8212,19 @@
         <v>9849</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5089</v>
+        <v>4925</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>17663</v>
+        <v>17712</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.004988034393436653</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.00257712102669232</v>
+        <v>0.002494202483193283</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.008945123702048296</v>
+        <v>0.008970041058700674</v>
       </c>
     </row>
     <row r="23">
@@ -8241,19 +8241,19 @@
         <v>7033</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2998</v>
+        <v>2940</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>14724</v>
+        <v>14187</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.006117460131723172</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.002608148270763217</v>
+        <v>0.002556989133967959</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01280774724456029</v>
+        <v>0.01234046689626312</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>8</v>
@@ -8262,19 +8262,19 @@
         <v>8427</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3913</v>
+        <v>3922</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>16719</v>
+        <v>16112</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.0102161486973835</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.004743379284701163</v>
+        <v>0.004754121283783475</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02026834375165176</v>
+        <v>0.01953177696424815</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>15</v>
@@ -8283,19 +8283,19 @@
         <v>15460</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>9076</v>
+        <v>8416</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>25349</v>
+        <v>24876</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.007829767199114917</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.004596317744424275</v>
+        <v>0.004262419322714476</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01283769873004592</v>
+        <v>0.01259836544034517</v>
       </c>
     </row>
     <row r="24">
@@ -8325,19 +8325,19 @@
         <v>3505</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>10445</v>
+        <v>9539</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.004249077333388938</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.001120040991281129</v>
+        <v>0.001117272363304605</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.0126625399504796</v>
+        <v>0.01156335274966414</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>3</v>
@@ -8349,16 +8349,16 @@
         <v>922</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>11119</v>
+        <v>9821</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.001775134907495412</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0004671803340334165</v>
+        <v>0.0004670408382102347</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.005631202953004882</v>
+        <v>0.004973801161739912</v>
       </c>
     </row>
     <row r="25">
@@ -8375,19 +8375,19 @@
         <v>175462</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>151373</v>
+        <v>153566</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>205606</v>
+        <v>202045</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1526239241448054</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1316699422111393</v>
+        <v>0.1335780704726119</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1788440071119418</v>
+        <v>0.1757463072139392</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>152</v>
@@ -8396,19 +8396,19 @@
         <v>156634</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>134358</v>
+        <v>134561</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>180496</v>
+        <v>181323</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1898818544523626</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1628768111598298</v>
+        <v>0.1631236086720917</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2188092525054459</v>
+        <v>0.2198111854048329</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>312</v>
@@ -8417,19 +8417,19 @@
         <v>332097</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>300201</v>
+        <v>295876</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>365974</v>
+        <v>366880</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1681891510118877</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.15203575389906</v>
+        <v>0.1498453955008184</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1853464636186113</v>
+        <v>0.1858052090170529</v>
       </c>
     </row>
     <row r="26">
@@ -8446,19 +8446,19 @@
         <v>962025</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>933178</v>
+        <v>934619</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>988551</v>
+        <v>984547</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8368067475774361</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8117143688909116</v>
+        <v>0.8129680255622737</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8598803852346659</v>
+        <v>0.8563977873005664</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>629</v>
@@ -8467,19 +8467,19 @@
         <v>651605</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>627563</v>
+        <v>627624</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>676721</v>
+        <v>676178</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.789917649281703</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.760771836775029</v>
+        <v>0.7608461453887352</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8203638042539289</v>
+        <v>0.819705509963334</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1560</v>
@@ -8488,19 +8488,19 @@
         <v>1613631</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1577137</v>
+        <v>1577845</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1645904</v>
+        <v>1652530</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8172179124880653</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7987358020324268</v>
+        <v>0.799094405225153</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8335625894248535</v>
+        <v>0.8369179917607799</v>
       </c>
     </row>
     <row r="27">
@@ -8595,7 +8595,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>6924</v>
+        <v>8214</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.003590591876122023</v>
@@ -8604,7 +8604,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01118570651288349</v>
+        <v>0.01326818161751258</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>4</v>
@@ -8616,16 +8616,16 @@
         <v>1469</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>13770</v>
+        <v>13416</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.007006405723983812</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.001995549971382746</v>
+        <v>0.00199480534616327</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01870283829454479</v>
+        <v>0.01822214155397214</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>6</v>
@@ -8634,19 +8634,19 @@
         <v>7381</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2780</v>
+        <v>2910</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>15630</v>
+        <v>15324</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.005446188848413884</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.00205105817855371</v>
+        <v>0.002146928807386314</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01153246629200437</v>
+        <v>0.01130675698702335</v>
       </c>
     </row>
     <row r="29">
@@ -8663,19 +8663,19 @@
         <v>5967</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1981</v>
+        <v>2045</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>13749</v>
+        <v>14504</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.009638413693273382</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.003199729242042063</v>
+        <v>0.003303698994812104</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02221063483707735</v>
+        <v>0.02342955591948573</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>9</v>
@@ -8684,19 +8684,19 @@
         <v>10080</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>4684</v>
+        <v>4574</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>18168</v>
+        <v>18369</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01369079313140228</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.006362068441890313</v>
+        <v>0.006212323342928656</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.02467716896479764</v>
+        <v>0.02494939400262781</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>14</v>
@@ -8705,19 +8705,19 @@
         <v>16046</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>9031</v>
+        <v>9541</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>27112</v>
+        <v>27898</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01183981674124007</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.006663742544633924</v>
+        <v>0.007039635935217458</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.02000508430783806</v>
+        <v>0.02058471968596317</v>
       </c>
     </row>
     <row r="30">
@@ -8737,7 +8737,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5603</v>
+        <v>5021</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.001609307166421256</v>
@@ -8746,7 +8746,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.009051617423207255</v>
+        <v>0.008111619646765844</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>2</v>
@@ -8758,7 +8758,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>7251</v>
+        <v>6213</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.00259221593330121</v>
@@ -8767,7 +8767,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.009848676671306554</v>
+        <v>0.008439494913573955</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>3</v>
@@ -8776,19 +8776,19 @@
         <v>2905</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>7790</v>
+        <v>8154</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.002143259721535837</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.0006210797648472597</v>
+        <v>0.0006218607629258653</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.005748027127379954</v>
+        <v>0.006016773856405483</v>
       </c>
     </row>
     <row r="31">
@@ -8805,19 +8805,19 @@
         <v>101429</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>84022</v>
+        <v>82564</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>124744</v>
+        <v>121202</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1638486196043925</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1357292598303275</v>
+        <v>0.133374478411925</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2015124319803246</v>
+        <v>0.1957905948591682</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>97</v>
@@ -8826,19 +8826,19 @@
         <v>101183</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>83867</v>
+        <v>82592</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>121315</v>
+        <v>121639</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1374325077115484</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1139131566098342</v>
+        <v>0.1121817570983283</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1647779009499412</v>
+        <v>0.1652177141093098</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>184</v>
@@ -8847,19 +8847,19 @@
         <v>202612</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>174870</v>
+        <v>174646</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>231066</v>
+        <v>229523</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1494984063224924</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1290291143139316</v>
+        <v>0.1288638368265941</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1704934746505842</v>
+        <v>0.1693548482758996</v>
       </c>
     </row>
     <row r="32">
@@ -8876,19 +8876,19 @@
         <v>508426</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>486856</v>
+        <v>488035</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>527323</v>
+        <v>527402</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8213130676597908</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7864696048072914</v>
+        <v>0.7883741656392188</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8518403640853404</v>
+        <v>0.8519670259697223</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>585</v>
@@ -8897,19 +8897,19 @@
         <v>617907</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>596729</v>
+        <v>596336</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>636976</v>
+        <v>637700</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8392780774997642</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8105126461293835</v>
+        <v>0.8099799486564886</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8651786519046126</v>
+        <v>0.8661631558456628</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1085</v>
@@ -8918,19 +8918,19 @@
         <v>1126332</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1095297</v>
+        <v>1097135</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1155068</v>
+        <v>1155703</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8310723283663178</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8081728793097498</v>
+        <v>0.8095289405046782</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8522754473683832</v>
+        <v>0.8527436872939921</v>
       </c>
     </row>
     <row r="33">
@@ -9082,19 +9082,19 @@
         <v>7965</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>3895</v>
+        <v>3770</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>15776</v>
+        <v>15428</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.007399686393978405</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.003618036545812365</v>
+        <v>0.003501950584838571</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.01465541984813232</v>
+        <v>0.01433219147747388</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>8</v>
@@ -9103,19 +9103,19 @@
         <v>7965</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>3856</v>
+        <v>3969</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>15105</v>
+        <v>16159</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.005841472893491646</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.002827590339013927</v>
+        <v>0.002910426518483569</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.01107764160707563</v>
+        <v>0.01185027966385126</v>
       </c>
     </row>
     <row r="36">
@@ -9179,19 +9179,19 @@
         <v>56658</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>43845</v>
+        <v>43055</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>73886</v>
+        <v>71946</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1973139496337409</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1526926080167197</v>
+        <v>0.149942807158206</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2573134202896896</v>
+        <v>0.2505568427623914</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>97</v>
@@ -9200,19 +9200,19 @@
         <v>101713</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>84523</v>
+        <v>82300</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>119770</v>
+        <v>122110</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.09448880814196343</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.07851994767362289</v>
+        <v>0.07645411750511354</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1112629057465965</v>
+        <v>0.1134372002932153</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>146</v>
@@ -9221,19 +9221,19 @@
         <v>158371</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>135439</v>
+        <v>136583</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>184913</v>
+        <v>183462</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1161415532896947</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.0993247321011267</v>
+        <v>0.1001635006648559</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1356061536594388</v>
+        <v>0.1345419843933891</v>
       </c>
     </row>
     <row r="38">
@@ -9250,19 +9250,19 @@
         <v>230487</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>213259</v>
+        <v>215199</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>243300</v>
+        <v>244090</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.8026860503662591</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.7426865797103103</v>
+        <v>0.7494431572376088</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.8473073919832802</v>
+        <v>0.850057192841794</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>882</v>
@@ -9271,19 +9271,19 @@
         <v>966778</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>947056</v>
+        <v>945490</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>983514</v>
+        <v>985804</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.8981115054640582</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.8797902779230736</v>
+        <v>0.8783354806674831</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9136584870441802</v>
+        <v>0.9157853646150758</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1105</v>
@@ -9292,7 +9292,7 @@
         <v>1197266</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1169693</v>
+        <v>1171675</v>
       </c>
       <c r="T38" s="5" t="n">
         <v>1220732</v>
@@ -9301,10 +9301,10 @@
         <v>0.8780169738168137</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.8577964985023948</v>
+        <v>0.859250245433183</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.8952260959946832</v>
+        <v>0.8952259877669833</v>
       </c>
     </row>
     <row r="39">
@@ -9396,19 +9396,19 @@
         <v>11692</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>6104</v>
+        <v>5990</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>20078</v>
+        <v>20535</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.003459483769353035</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.001806243662290288</v>
+        <v>0.001772364151065532</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.005940997806121134</v>
+        <v>0.006076282315265097</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>13</v>
@@ -9417,19 +9417,19 @@
         <v>13557</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>7388</v>
+        <v>7123</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>23242</v>
+        <v>22557</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.003850289438764714</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.002098048587477657</v>
+        <v>0.002022988891270922</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.006600629536155598</v>
+        <v>0.006406074367406371</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>24</v>
@@ -9438,19 +9438,19 @@
         <v>25249</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>16475</v>
+        <v>16711</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>36991</v>
+        <v>37099</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.003658894954843662</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.002387462243620802</v>
+        <v>0.002421665944766524</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.005360470725508225</v>
+        <v>0.005376119432886833</v>
       </c>
     </row>
     <row r="41">
@@ -9467,19 +9467,19 @@
         <v>17319</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>10451</v>
+        <v>10535</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>28433</v>
+        <v>28642</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.005124710924508679</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.003092328518623279</v>
+        <v>0.003117258891358628</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.008413271956675877</v>
+        <v>0.008475141518236818</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>29</v>
@@ -9488,19 +9488,19 @@
         <v>30294</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>21032</v>
+        <v>20888</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>42554</v>
+        <v>44392</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.00860343931632006</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.005973038156121943</v>
+        <v>0.005932266725070788</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.01208526492954158</v>
+        <v>0.01260740261041749</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>45</v>
@@ -9509,19 +9509,19 @@
         <v>47613</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>34507</v>
+        <v>34326</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>62780</v>
+        <v>62831</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.006899755164924398</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.00500046969469213</v>
+        <v>0.0049742680413836</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.009097632467416806</v>
+        <v>0.009105076930130461</v>
       </c>
     </row>
     <row r="42">
@@ -9541,7 +9541,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>5994</v>
+        <v>6946</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.0005882596232810838</v>
@@ -9550,7 +9550,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.001773470183146573</v>
+        <v>0.002055183739263533</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>7</v>
@@ -9559,19 +9559,19 @@
         <v>7629</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>2997</v>
+        <v>3030</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>14943</v>
+        <v>16110</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.002166699586559527</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.0008510501174460688</v>
+        <v>0.000860529975067723</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.00424380843466896</v>
+        <v>0.004575297258502409</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>9</v>
@@ -9580,19 +9580,19 @@
         <v>9617</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>4620</v>
+        <v>5102</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>17799</v>
+        <v>18533</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.001393669086191321</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.0006694832151898233</v>
+        <v>0.0007393261736542444</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.002579271625375174</v>
+        <v>0.00268560863031793</v>
       </c>
     </row>
     <row r="43">
@@ -9609,19 +9609,19 @@
         <v>524403</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>481139</v>
+        <v>478590</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>569963</v>
+        <v>569042</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.155168470775052</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1423668299314079</v>
+        <v>0.141612373939802</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1686493908805951</v>
+        <v>0.1683767039200963</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>461</v>
@@ -9630,19 +9630,19 @@
         <v>482892</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>443758</v>
+        <v>443747</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>526442</v>
+        <v>526215</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.137141101483077</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1260270813062458</v>
+        <v>0.1260238782520549</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1495092930598848</v>
+        <v>0.1494450117246726</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>926</v>
@@ -9651,19 +9651,19 @@
         <v>1007295</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>944376</v>
+        <v>944599</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>1064855</v>
+        <v>1067416</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1459698859970937</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1368520481322076</v>
+        <v>0.1368843634529061</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1543110584745502</v>
+        <v>0.1546821830868735</v>
       </c>
     </row>
     <row r="44">
@@ -9680,19 +9680,19 @@
         <v>2824173</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>2777761</v>
+        <v>2780705</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>2866153</v>
+        <v>2870586</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.8356590749078052</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.8219260030558927</v>
+        <v>0.8227972095894115</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.8480810333975678</v>
+        <v>0.8493927448051303</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>2806</v>
@@ -9701,19 +9701,19 @@
         <v>2986759</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>2943130</v>
+        <v>2939805</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>3029413</v>
+        <v>3026787</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.8482384701752786</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.8358478557244637</v>
+        <v>0.8349036696497308</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.8603522278227989</v>
+        <v>0.8596064396091254</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>5529</v>
@@ -9722,19 +9722,19 @@
         <v>5810931</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>5751100</v>
+        <v>5748001</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>5877169</v>
+        <v>5873109</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.8420777947969469</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.8334074661921725</v>
+        <v>0.8329584548010172</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.8516764092903847</v>
+        <v>0.8510881083375965</v>
       </c>
     </row>
     <row r="45">
@@ -10115,19 +10115,19 @@
         <v>3271</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>941</v>
+        <v>918</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8986</v>
+        <v>8505</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.005964564559228246</v>
+        <v>0.005964564559228245</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.001716038794978132</v>
+        <v>0.001673076238618118</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01638403186091779</v>
+        <v>0.01550681363830028</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>7</v>
@@ -10136,19 +10136,19 @@
         <v>5009</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2309</v>
+        <v>2246</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>10427</v>
+        <v>10076</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.01028467334462764</v>
+        <v>0.01028467334462763</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.004740709113760214</v>
+        <v>0.004612933577214096</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02141153050936186</v>
+        <v>0.02069100572107408</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>11</v>
@@ -10157,19 +10157,19 @@
         <v>8280</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>4361</v>
+        <v>4302</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>14396</v>
+        <v>14124</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.007996412021570478</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.004212063748891839</v>
+        <v>0.004154306005407038</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01390313809963151</v>
+        <v>0.01364045666844618</v>
       </c>
     </row>
     <row r="6">
@@ -10186,19 +10186,19 @@
         <v>4915</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16708</v>
+        <v>15459</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.008961420252948368</v>
+        <v>0.008961420252948365</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.001837815309204053</v>
+        <v>0.001826748981142887</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03046282217345225</v>
+        <v>0.02818616314236417</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -10210,7 +10210,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5716</v>
+        <v>5706</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.003271817280015282</v>
@@ -10219,7 +10219,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01173664149515017</v>
+        <v>0.01171591199973768</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>5</v>
@@ -10228,19 +10228,19 @@
         <v>6508</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1984</v>
+        <v>1955</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>16748</v>
+        <v>15871</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.006285467878471259</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.001916035475035937</v>
+        <v>0.00188815729578735</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01617462121187325</v>
+        <v>0.01532775644915811</v>
       </c>
     </row>
     <row r="7">
@@ -10257,19 +10257,19 @@
         <v>65414</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>49776</v>
+        <v>50371</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>83205</v>
+        <v>83621</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1192697610487062</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09075636756386193</v>
+        <v>0.09184106310674096</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1517081029099302</v>
+        <v>0.152466517842976</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>56</v>
@@ -10278,19 +10278,19 @@
         <v>46313</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>34477</v>
+        <v>34242</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>59775</v>
+        <v>59566</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09509907001081334</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07079559542680237</v>
+        <v>0.07031325004417956</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1227407362789409</v>
+        <v>0.1223133236905349</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>113</v>
@@ -10299,19 +10299,19 @@
         <v>111727</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>92615</v>
+        <v>92223</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>132909</v>
+        <v>131896</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1079017238792764</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08944333856315208</v>
+        <v>0.08906532632650614</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1283577442146684</v>
+        <v>0.1273796693015268</v>
       </c>
     </row>
     <row r="8">
@@ -10328,19 +10328,19 @@
         <v>474856</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>455572</v>
+        <v>455819</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>491512</v>
+        <v>491020</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8658042541391174</v>
+        <v>0.8658042541391172</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8306422209207658</v>
+        <v>0.8310931178866889</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8961723147562455</v>
+        <v>0.8952756385357404</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>619</v>
@@ -10349,19 +10349,19 @@
         <v>434084</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>420360</v>
+        <v>420105</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>446073</v>
+        <v>447362</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8913444393645438</v>
+        <v>0.8913444393645437</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8631638013901549</v>
+        <v>0.8626405586073539</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9159626005774331</v>
+        <v>0.9186097014975982</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1107</v>
@@ -10370,19 +10370,19 @@
         <v>908940</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>887060</v>
+        <v>886205</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>930435</v>
+        <v>929726</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8778163962206819</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8566856132373272</v>
+        <v>0.8558595074677217</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.898575100652634</v>
+        <v>0.8978908308076474</v>
       </c>
     </row>
     <row r="9">
@@ -10521,19 +10521,19 @@
         <v>5153</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1759</v>
+        <v>2298</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>11496</v>
+        <v>11445</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0107135553234476</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.003656959799530636</v>
+        <v>0.004777486099172145</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02390150239222194</v>
+        <v>0.0237953492969596</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>5</v>
@@ -10542,19 +10542,19 @@
         <v>6211</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2060</v>
+        <v>2370</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>16393</v>
+        <v>14874</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01473938193656051</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.004888234210505915</v>
+        <v>0.005625335624995936</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03890262619263008</v>
+        <v>0.03529957283542441</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>11</v>
@@ -10563,19 +10563,19 @@
         <v>11364</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>5492</v>
+        <v>5561</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>21686</v>
+        <v>21210</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01259349599762331</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.006086465889526352</v>
+        <v>0.0061631840604949</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02403296033116161</v>
+        <v>0.02350496550612519</v>
       </c>
     </row>
     <row r="12">
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5788</v>
+        <v>5869</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.00241022545798706</v>
@@ -10604,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01203468029365042</v>
+        <v>0.01220187788117397</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2</v>
@@ -10616,7 +10616,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>4822</v>
+        <v>4990</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.002984944148461163</v>
@@ -10625,7 +10625,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.01144358667245078</v>
+        <v>0.01184294890920143</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>3</v>
@@ -10634,19 +10634,19 @@
         <v>2417</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>7437</v>
+        <v>7001</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.00267860190492893</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0005525033353852325</v>
+        <v>0.0005499136062862923</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.008241967223839465</v>
+        <v>0.007758757699183041</v>
       </c>
     </row>
     <row r="13">
@@ -10663,19 +10663,19 @@
         <v>50827</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>37817</v>
+        <v>38028</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>67229</v>
+        <v>67277</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1056734062528393</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07862421870376721</v>
+        <v>0.07906395581574105</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1397739205812356</v>
+        <v>0.1398738101020538</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>57</v>
@@ -10684,19 +10684,19 @@
         <v>45950</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>34843</v>
+        <v>34856</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>59047</v>
+        <v>59931</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1090472586810294</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08268883650518126</v>
+        <v>0.08271960211441584</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1401304470948716</v>
+        <v>0.1422280568938809</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>100</v>
@@ -10705,19 +10705,19 @@
         <v>96777</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>79497</v>
+        <v>78459</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>116329</v>
+        <v>119248</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1072488944737582</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08809899254941098</v>
+        <v>0.08694861567478077</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1289164995679569</v>
+        <v>0.1321512583364088</v>
       </c>
     </row>
     <row r="14">
@@ -10734,19 +10734,19 @@
         <v>423844</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>407628</v>
+        <v>407020</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>438077</v>
+        <v>436685</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.881202812965726</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8474868923433254</v>
+        <v>0.8462228743477148</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9107936655242426</v>
+        <v>0.9078990962828283</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>524</v>
@@ -10755,19 +10755,19 @@
         <v>367956</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>354652</v>
+        <v>351960</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>380761</v>
+        <v>379846</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.873228415233949</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8416560124029721</v>
+        <v>0.8352679393852872</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9036174274056806</v>
+        <v>0.9014458062240703</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>953</v>
@@ -10776,19 +10776,19 @@
         <v>791800</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>771165</v>
+        <v>768410</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>810117</v>
+        <v>811137</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8774790076236897</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8546104397778952</v>
+        <v>0.8515574804825864</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8977779692477063</v>
+        <v>0.8989081903817845</v>
       </c>
     </row>
     <row r="15">
@@ -10927,19 +10927,19 @@
         <v>5893</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2108</v>
+        <v>2500</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>12369</v>
+        <v>12851</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01251959655774066</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.004478229676640013</v>
+        <v>0.005310986345952896</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02627973906400229</v>
+        <v>0.02730264667559439</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -10951,16 +10951,16 @@
         <v>553</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>5183</v>
+        <v>5334</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01174858527867465</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.00296034248869689</v>
+        <v>0.002960946364376266</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02774715440764939</v>
+        <v>0.02855853679644312</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>10</v>
@@ -10969,19 +10969,19 @@
         <v>8087</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4020</v>
+        <v>4033</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>14350</v>
+        <v>15019</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01230054511223499</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.006114434462068843</v>
+        <v>0.006133902059736972</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02182699114193157</v>
+        <v>0.02284346078629783</v>
       </c>
     </row>
     <row r="18">
@@ -11001,16 +11001,16 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>12383</v>
+        <v>11717</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.006807284589568395</v>
+        <v>0.006807284589568396</v>
       </c>
       <c r="H18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02630939280587548</v>
+        <v>0.024894075233424</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>2</v>
@@ -11022,7 +11022,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>3375</v>
+        <v>3606</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.005742149235029402</v>
@@ -11031,7 +11031,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.01807054162344724</v>
+        <v>0.01930353077870634</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>4</v>
@@ -11040,19 +11040,19 @@
         <v>4277</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1102</v>
+        <v>1084</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>13141</v>
+        <v>12289</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.006504669770037349</v>
+        <v>0.006504669770037348</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.001676308426159769</v>
+        <v>0.001649196675061805</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01998740948775722</v>
+        <v>0.01869107476151303</v>
       </c>
     </row>
     <row r="19">
@@ -11069,19 +11069,19 @@
         <v>60970</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>45783</v>
+        <v>45416</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>77919</v>
+        <v>78756</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1295380539880247</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09727201006819748</v>
+        <v>0.09649235146257118</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1655501476086305</v>
+        <v>0.1673279576622186</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>18</v>
@@ -11090,19 +11090,19 @@
         <v>14868</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9074</v>
+        <v>8838</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>22886</v>
+        <v>22952</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.0795972624313513</v>
+        <v>0.07959726243135129</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04858031818036523</v>
+        <v>0.04731285043947824</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.12252451431293</v>
+        <v>0.1228784048922931</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>69</v>
@@ -11111,19 +11111,19 @@
         <v>75838</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>60065</v>
+        <v>58405</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>95985</v>
+        <v>94004</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1153494125540904</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09135868924890939</v>
+        <v>0.08883504644382383</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.14599322460039</v>
+        <v>0.1429812690794084</v>
       </c>
     </row>
     <row r="20">
@@ -11140,19 +11140,19 @@
         <v>400603</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>382795</v>
+        <v>381441</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>415995</v>
+        <v>415804</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8511350648646663</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8133008253769863</v>
+        <v>0.8104223151438127</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8838370496958441</v>
+        <v>0.8834322671925277</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>264</v>
@@ -11161,19 +11161,19 @@
         <v>168655</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>160918</v>
+        <v>160323</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>175406</v>
+        <v>175448</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9029120030549446</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8614922236627157</v>
+        <v>0.858305861086467</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9390563220719034</v>
+        <v>0.9392776672942752</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>692</v>
@@ -11182,19 +11182,19 @@
         <v>569259</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>549911</v>
+        <v>549613</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>586233</v>
+        <v>588836</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8658453725636372</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.836416918292791</v>
+        <v>0.8359636390160246</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8916631815739637</v>
+        <v>0.8956222519217192</v>
       </c>
     </row>
     <row r="21">
@@ -11333,19 +11333,19 @@
         <v>25162</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>15308</v>
+        <v>16356</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>39020</v>
+        <v>41405</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02226388053354646</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01354471997353818</v>
+        <v>0.0144715740500845</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03452490962298303</v>
+        <v>0.03663569628272251</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>22</v>
@@ -11354,19 +11354,19 @@
         <v>17379</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>10953</v>
+        <v>11171</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>25619</v>
+        <v>27324</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.02028594664963321</v>
+        <v>0.02028594664963322</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01278516033910029</v>
+        <v>0.01303990300705867</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02990481396618347</v>
+        <v>0.03189570576300124</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>44</v>
@@ -11375,19 +11375,19 @@
         <v>42541</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>30260</v>
+        <v>30636</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>59511</v>
+        <v>57224</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02141105344794231</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01523010418625868</v>
+        <v>0.01541902866815682</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02995183017654805</v>
+        <v>0.02880103610813596</v>
       </c>
     </row>
     <row r="24">
@@ -11404,19 +11404,19 @@
         <v>9817</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4137</v>
+        <v>4033</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>23011</v>
+        <v>22460</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.008686391544784129</v>
+        <v>0.008686391544784127</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.003660246480868392</v>
+        <v>0.003568840697406236</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.02036006243390389</v>
+        <v>0.01987271795402196</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>9</v>
@@ -11425,19 +11425,19 @@
         <v>6677</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3143</v>
+        <v>3068</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>12684</v>
+        <v>12102</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.00779357139216039</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.00366890949155109</v>
+        <v>0.003581814694191851</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.01480625652727248</v>
+        <v>0.01412694811650931</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>16</v>
@@ -11446,19 +11446,19 @@
         <v>16494</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>9328</v>
+        <v>9268</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>28225</v>
+        <v>27940</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.008301433677929491</v>
+        <v>0.008301433677929489</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.004694881936966234</v>
+        <v>0.00466462927270808</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01420592886930795</v>
+        <v>0.01406243897848111</v>
       </c>
     </row>
     <row r="25">
@@ -11475,19 +11475,19 @@
         <v>162431</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>135174</v>
+        <v>134567</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>192066</v>
+        <v>194370</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1437196887869736</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.119602378615181</v>
+        <v>0.1190652597481857</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1699409293712115</v>
+        <v>0.1719796682751076</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>145</v>
@@ -11496,19 +11496,19 @@
         <v>119158</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>100954</v>
+        <v>102015</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>138047</v>
+        <v>138965</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1390922762817218</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1178435362271808</v>
+        <v>0.1190815328574192</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1611412972646886</v>
+        <v>0.162213407088262</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>267</v>
@@ -11517,19 +11517,19 @@
         <v>281589</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>244222</v>
+        <v>249976</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>315836</v>
+        <v>317462</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1417244842187934</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1229178632282205</v>
+        <v>0.1258135344470966</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1589610248973024</v>
+        <v>0.1597797626085268</v>
       </c>
     </row>
     <row r="26">
@@ -11546,19 +11546,19 @@
         <v>932781</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>901701</v>
+        <v>898382</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>961667</v>
+        <v>963023</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.8253300391346958</v>
+        <v>0.8253300391346957</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.797830258906844</v>
+        <v>0.7948929474061384</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8508881162058494</v>
+        <v>0.8520879990670611</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1048</v>
@@ -11567,19 +11567,19 @@
         <v>713469</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>693155</v>
+        <v>691834</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>732817</v>
+        <v>731994</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8328282056764845</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8091162601874222</v>
+        <v>0.8075742738868176</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.855413618143961</v>
+        <v>0.8544522922081443</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2014</v>
@@ -11588,19 +11588,19 @@
         <v>1646250</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1609161</v>
+        <v>1608504</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1683715</v>
+        <v>1681634</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.8285630286553348</v>
+        <v>0.8285630286553347</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8098958516397204</v>
+        <v>0.8095649969679722</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8474191589342918</v>
+        <v>0.8463716169024667</v>
       </c>
     </row>
     <row r="27">
@@ -11739,19 +11739,19 @@
         <v>21785</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>14128</v>
+        <v>13473</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>33852</v>
+        <v>33026</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03835664665103442</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02487467747788319</v>
+        <v>0.02372128178926031</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.05960221864625968</v>
+        <v>0.05814829617650172</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>22</v>
@@ -11760,19 +11760,19 @@
         <v>14782</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>9727</v>
+        <v>9395</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>22160</v>
+        <v>23014</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.017841282424995</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01174052865320434</v>
+        <v>0.01133946277052945</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.02674688002779219</v>
+        <v>0.02777776420850614</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>42</v>
@@ -11781,19 +11781,19 @@
         <v>36567</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>25960</v>
+        <v>26009</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>50065</v>
+        <v>49419</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02618519328484838</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01858975750218729</v>
+        <v>0.01862466424092139</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03585132149428732</v>
+        <v>0.03538866242040336</v>
       </c>
     </row>
     <row r="30">
@@ -11810,19 +11810,19 @@
         <v>11888</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4766</v>
+        <v>5021</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>25765</v>
+        <v>27828</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.0209315283373324</v>
+        <v>0.02093152833733239</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.008392212451620463</v>
+        <v>0.008839836450309746</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04536297297003994</v>
+        <v>0.04899676898128225</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>11</v>
@@ -11831,19 +11831,19 @@
         <v>8997</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>4483</v>
+        <v>4631</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>18117</v>
+        <v>18783</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01085912319323576</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.00541084534372429</v>
+        <v>0.005589438024743792</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02186728033742785</v>
+        <v>0.02267126736786046</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>18</v>
@@ -11852,19 +11852,19 @@
         <v>20885</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>11785</v>
+        <v>11258</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>35841</v>
+        <v>35861</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01495572366011891</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.008438901776698253</v>
+        <v>0.008061998152810505</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02566532791853075</v>
+        <v>0.02568015020682654</v>
       </c>
     </row>
     <row r="31">
@@ -11881,19 +11881,19 @@
         <v>125023</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>102464</v>
+        <v>103924</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>147867</v>
+        <v>151622</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2201251392174703</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1804051834232828</v>
+        <v>0.1829765673154689</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2603458600146508</v>
+        <v>0.2669575803419629</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>147</v>
@@ -11902,19 +11902,19 @@
         <v>119819</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>99565</v>
+        <v>101679</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>137997</v>
+        <v>140588</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1446208343759965</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1201742262563996</v>
+        <v>0.1227263448237334</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1665617275401615</v>
+        <v>0.1696895517824771</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>255</v>
@@ -11923,19 +11923,19 @@
         <v>244842</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>217903</v>
+        <v>216140</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>275300</v>
+        <v>275722</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.1753295842763671</v>
+        <v>0.175329584276367</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1560392379167933</v>
+        <v>0.1547768307428586</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1971407283598093</v>
+        <v>0.1974431653250081</v>
       </c>
     </row>
     <row r="32">
@@ -11952,19 +11952,19 @@
         <v>409267</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>384663</v>
+        <v>384008</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>431645</v>
+        <v>432518</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.720586685794163</v>
+        <v>0.7205866857941629</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6772666545298754</v>
+        <v>0.6761141510539918</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7599868899792684</v>
+        <v>0.7615234102319047</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1106</v>
@@ -11973,19 +11973,19 @@
         <v>684905</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>665592</v>
+        <v>663700</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>705536</v>
+        <v>704493</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8266787600057727</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8033679097111264</v>
+        <v>0.8010845869127386</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8515805654694003</v>
+        <v>0.8503219806836989</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1518</v>
@@ -11994,19 +11994,19 @@
         <v>1094172</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1061276</v>
+        <v>1059172</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1123265</v>
+        <v>1123889</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.7835294987786656</v>
+        <v>0.7835294987786657</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7599729351090435</v>
+        <v>0.7584663667962918</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.804362967526435</v>
+        <v>0.8048101746712581</v>
       </c>
     </row>
     <row r="33">
@@ -12148,16 +12148,16 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>9700</v>
+        <v>9055</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.008101852789883911</v>
+        <v>0.008101852789883913</v>
       </c>
       <c r="H35" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.04351054125284444</v>
+        <v>0.04061590406330427</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>12</v>
@@ -12166,19 +12166,19 @@
         <v>9642</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>5012</v>
+        <v>4813</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>16593</v>
+        <v>15859</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01145065246096307</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.005952535733107264</v>
+        <v>0.005715997451883548</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.01970633658283047</v>
+        <v>0.01883459743267669</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>13</v>
@@ -12187,19 +12187,19 @@
         <v>11448</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>5903</v>
+        <v>6458</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>20084</v>
+        <v>19913</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01074960594576679</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.005542588994317964</v>
+        <v>0.00606379272942639</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.0188587441651901</v>
+        <v>0.0186987995054176</v>
       </c>
     </row>
     <row r="36">
@@ -12219,7 +12219,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>23214</v>
+        <v>25323</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.03364524779914206</v>
@@ -12228,7 +12228,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1041245663960041</v>
+        <v>0.1135837773425998</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>9</v>
@@ -12237,19 +12237,19 @@
         <v>8400</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>3708</v>
+        <v>3884</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>20215</v>
+        <v>18954</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.009975619965153889</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.004403429791036458</v>
+        <v>0.004612453333707119</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.02400833699775152</v>
+        <v>0.02250983397861042</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>11</v>
@@ -12258,19 +12258,19 @@
         <v>15901</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>7122</v>
+        <v>6656</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>33563</v>
+        <v>36668</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.01493068199896704</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.006688015473316845</v>
+        <v>0.006249764093142205</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.03151566311494936</v>
+        <v>0.03443141096132651</v>
       </c>
     </row>
     <row r="37">
@@ -12287,19 +12287,19 @@
         <v>21904</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>11041</v>
+        <v>11061</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>37021</v>
+        <v>39001</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.09824942631509415</v>
+        <v>0.09824942631509417</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.04952224522556962</v>
+        <v>0.04961507606153197</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1660559448019665</v>
+        <v>0.1749376234504349</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>80</v>
@@ -12308,19 +12308,19 @@
         <v>91128</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>71602</v>
+        <v>72791</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>117166</v>
+        <v>115564</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1082257382591192</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.08503561899828639</v>
+        <v>0.08644789983263493</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.139148700096565</v>
+        <v>0.1372466240262142</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>91</v>
@@ -12329,19 +12329,19 @@
         <v>113032</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>90859</v>
+        <v>90281</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>140133</v>
+        <v>140571</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1061372709246083</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.08531688749221246</v>
+        <v>0.08477386173409526</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1315851864351469</v>
+        <v>0.1319968061415613</v>
       </c>
     </row>
     <row r="38">
@@ -12358,19 +12358,19 @@
         <v>191731</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>173194</v>
+        <v>173165</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>205281</v>
+        <v>206717</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.86000347309588</v>
+        <v>0.8600034730958799</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.7768583154698357</v>
+        <v>0.7767255326778818</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9207819082648758</v>
+        <v>0.9272225746804437</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>1056</v>
@@ -12379,19 +12379,19 @@
         <v>732850</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>706670</v>
+        <v>707139</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>753355</v>
+        <v>752537</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.8703479893147638</v>
+        <v>0.8703479893147639</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.8392571164031007</v>
+        <v>0.8398137320894813</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.8947003226436465</v>
+        <v>0.8937287347095206</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1150</v>
@@ -12400,19 +12400,19 @@
         <v>924580</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>895670</v>
+        <v>894838</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>951294</v>
+        <v>949040</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.8681824411306577</v>
+        <v>0.8681824411306578</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.841035244789788</v>
+        <v>0.8402541052785029</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.8932666961724957</v>
+        <v>0.8911496537001797</v>
       </c>
     </row>
     <row r="39">
@@ -12551,19 +12551,19 @@
         <v>63071</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>47764</v>
+        <v>47793</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>82928</v>
+        <v>82754</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.01843525315644802</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.01396108719054604</v>
+        <v>0.01396964040000644</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.02423934037267375</v>
+        <v>0.02418845631198716</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>72</v>
@@ -12572,19 +12572,19 @@
         <v>55216</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>42823</v>
+        <v>42101</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>71092</v>
+        <v>70182</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.01524300463685831</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.01182187140909212</v>
+        <v>0.01162240845311492</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.01962597945198813</v>
+        <v>0.01937468613434409</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>131</v>
@@ -12593,19 +12593,19 @@
         <v>118287</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>98892</v>
+        <v>98296</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>142237</v>
+        <v>141240</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.01679354489696904</v>
+        <v>0.01679354489696903</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.01404003487263494</v>
+        <v>0.01395535353217217</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.02019392658849236</v>
+        <v>0.02005234839324764</v>
       </c>
     </row>
     <row r="42">
@@ -12622,19 +12622,19 @@
         <v>38485</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>24420</v>
+        <v>24562</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>62623</v>
+        <v>60478</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.01124888800779779</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.007137962713013513</v>
+        <v>0.007179272445827087</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.01830434461811282</v>
+        <v>0.01767741088399125</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>35</v>
@@ -12643,19 +12643,19 @@
         <v>27997</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>18673</v>
+        <v>19391</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>39575</v>
+        <v>41292</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.007728871766478366</v>
+        <v>0.007728871766478367</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.005155053781442765</v>
+        <v>0.005353238763234856</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.01092508806646483</v>
+        <v>0.01139914636811973</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>57</v>
@@ -12664,19 +12664,19 @@
         <v>66482</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>49202</v>
+        <v>50299</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>91448</v>
+        <v>93902</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.009438615498808735</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.006985355122649508</v>
+        <v>0.0071411069807501</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.01298325124213963</v>
+        <v>0.01333151825739204</v>
       </c>
     </row>
     <row r="43">
@@ -12693,19 +12693,19 @@
         <v>486569</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>440862</v>
+        <v>442090</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>534325</v>
+        <v>538392</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1422214038930224</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.128861395588363</v>
+        <v>0.1292203518753374</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1561803243647548</v>
+        <v>0.1573691253259482</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>503</v>
@@ -12714,19 +12714,19 @@
         <v>437235</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>400924</v>
+        <v>402558</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>483459</v>
+        <v>478481</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1207043670930594</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1106802676563234</v>
+        <v>0.1111313510245767</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1334650956219151</v>
+        <v>0.1320908367837056</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>895</v>
@@ -12735,19 +12735,19 @@
         <v>923804</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>871426</v>
+        <v>863865</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>992580</v>
+        <v>981848</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1311556310319067</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1237192718596841</v>
+        <v>0.1226458764519648</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1409199992304576</v>
+        <v>0.1393962690593522</v>
       </c>
     </row>
     <row r="44">
@@ -12764,19 +12764,19 @@
         <v>2833083</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>2778061</v>
+        <v>2772427</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>2882682</v>
+        <v>2878119</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.8280944549427317</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.8120118441920873</v>
+        <v>0.8103652103491513</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.842592119129726</v>
+        <v>0.8412584563365995</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>4617</v>
@@ -12785,19 +12785,19 @@
         <v>3101918</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>3055796</v>
+        <v>3056013</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>3143490</v>
+        <v>3138139</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.856323756503604</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.8435911714294556</v>
+        <v>0.8436509659211064</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.8678002148717459</v>
+        <v>0.8663228795708798</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>7434</v>
@@ -12806,19 +12806,19 @@
         <v>5935001</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>5862620</v>
+        <v>5870085</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>5995129</v>
+        <v>5998297</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.8426122085723153</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.8323361353134031</v>
+        <v>0.8333958789992162</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.8511488467989299</v>
+        <v>0.8515986806469816</v>
       </c>
     </row>
     <row r="45">
